--- a/NSGA-II_results_Ur/delay_average_results.xlsx
+++ b/NSGA-II_results_Ur/delay_average_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_origin\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3935BFED-1C60-4E60-ACA6-12F46650AD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697BD63F-EBFD-4A94-82F6-E9B8F95EF266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25125" yWindow="9945" windowWidth="21600" windowHeight="11055" xr2:uid="{E7DFB434-D31B-4CB5-94F5-3B0CA3E00AC4}"/>
+    <workbookView xWindow="-25125" yWindow="9945" windowWidth="21600" windowHeight="11055" firstSheet="12" activeTab="19" xr2:uid="{E7DFB434-D31B-4CB5-94F5-3B0CA3E00AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,15 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -404,13 +413,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A01BF54-0380-4CF1-A4E2-8C8D0414F7DA}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7.9189800000000005E-2</v>
+        <v>7.5780918181818174E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
@@ -526,52 +537,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
+        <v>7.5780918181818174E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
+        <v>7.6520191666666668E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
+        <v>7.5592751076923079E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
+        <v>7.5518428285714284E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
+        <v>7.6125304800000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7.8670462499999996E-2</v>
+        <v>7.5977951250000009E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>8.3674624500000003E-2</v>
+        <v>7.6070438941176474E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7.9224723499999997E-2</v>
+        <v>7.6736196333333326E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7.9622697000000006E-2</v>
+        <v>7.7125836210526322E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>7.8396252999999999E-2</v>
+        <v>7.7928949900000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
@@ -642,57 +653,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
+        <v>7.5780918181818174E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
+        <v>7.6520191666666668E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
+        <v>7.5592751076923079E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
+        <v>7.5518428285714284E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
+        <v>7.6125304800000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7.8670462499999996E-2</v>
+        <v>7.5977951250000009E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>8.3674624500000003E-2</v>
+        <v>7.6070438941176474E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7.9224723499999997E-2</v>
+        <v>7.6736196333333326E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7.9622697000000006E-2</v>
+        <v>7.7125836210526322E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>7.8396252999999999E-2</v>
+        <v>7.7928949900000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>7.8274924500000009E-2</v>
+        <v>7.798588838095237E-2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
@@ -733,6 +744,934 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7778C473-CBA9-47B9-B1A2-86B253EE73CE}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>7.5780918181818174E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>7.6520191666666668E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>7.5592751076923079E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>7.5518428285714284E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7.6125304800000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>7.5977951250000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7.6070438941176474E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7.6736196333333326E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7.7125836210526322E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7.7928949900000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>7.798588838095237E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>7.799643863636363E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40404BAC-7376-4D79-9BDA-F8DCC3ED3177}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>7.5780918181818174E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>7.6520191666666668E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>7.5592751076923079E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>7.5518428285714284E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7.6125304800000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>7.5977951250000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7.6070438941176474E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7.6736196333333326E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7.7125836210526322E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7.7928949900000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>7.798588838095237E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>7.799643863636363E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>7.7921566695652172E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FA6B34-5C81-423B-84FB-33C1895FD692}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>7.5780918181818174E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>7.6520191666666668E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>7.5592751076923079E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>7.5518428285714284E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7.6125304800000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>7.5977951250000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7.6070438941176474E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7.6736196333333326E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7.7125836210526322E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7.7928949900000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>7.798588838095237E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>7.799643863636363E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>7.7921566695652172E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>7.8447172833333342E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F596E09-7BA9-4216-A713-46C4817B734D}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>7.5780918181818174E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>7.6520191666666668E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>7.5592751076923079E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>7.5518428285714284E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7.6125304800000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>7.5977951250000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7.6070438941176474E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7.6736196333333326E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7.7125836210526322E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7.7928949900000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>7.798588838095237E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>7.799643863636363E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>7.7921566695652172E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>7.8447172833333342E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>7.8411346239999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649AAD32-6F60-46E1-83FD-4A0FBAE1A6E9}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>7.5780918181818174E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>7.6520191666666668E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>7.5592751076923079E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>7.5518428285714284E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7.6125304800000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>7.5977951250000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7.6070438941176474E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7.6736196333333326E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7.7125836210526322E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7.7928949900000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>7.798588838095237E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>7.799643863636363E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>7.7921566695652172E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>7.8447172833333342E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>7.8411346239999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>7.8756010769230764E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE45A431-7F8E-4403-A6C1-9ED02F7D971E}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>7.5780918181818174E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>7.6520191666666668E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>7.5592751076923079E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>7.5518428285714284E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7.6125304800000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>7.5977951250000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7.6070438941176474E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7.6736196333333326E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7.7125836210526322E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7.7928949900000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>7.798588838095237E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>7.799643863636363E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>7.7921566695652172E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>7.8447172833333342E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>7.8411346239999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>7.8756010769230764E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>7.8878167777777786E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE9DFEC-4190-4D1B-B05B-42CBB98FB1EB}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>7.5780918181818174E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>7.6520191666666668E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>7.5592751076923079E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>7.5518428285714284E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7.6125304800000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>7.5977951250000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7.6070438941176474E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7.6736196333333326E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7.7125836210526322E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7.7928949900000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>7.798588838095237E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>7.799643863636363E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>7.7921566695652172E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>7.8447172833333342E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>7.8411346239999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>7.8756010769230764E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>7.8878167777777786E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>7.9507033642857147E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B0923-2E56-47B8-BE62-BCACD977A341}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>7.5780918181818174E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>7.6520191666666668E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>7.5592751076923079E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>7.5518428285714284E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7.6125304800000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>7.5977951250000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7.6070438941176474E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7.6736196333333326E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7.7125836210526322E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7.7928949900000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>7.798588838095237E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>7.799643863636363E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>7.7921566695652172E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>7.8447172833333342E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>7.8411346239999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>7.8756010769230764E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>7.8878167777777786E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>7.9507033642857147E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>7.8880671172413791E-2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
@@ -758,12 +1697,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
+        <v>7.5780918181818174E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
+        <v>7.6520191666666668E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -854,6 +1793,122 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F61A11-3715-4179-8E23-F506681F73AB}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>7.5780918181818174E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>7.6520191666666668E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>7.5592751076923079E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>7.5518428285714284E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7.6125304800000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>7.5977951250000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7.6070438941176474E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7.6736196333333326E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7.7125836210526322E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7.7928949900000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>7.798588838095237E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>7.799643863636363E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>7.7921566695652172E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>7.8447172833333342E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>7.8411346239999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>7.8756010769230764E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>7.8878167777777786E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>7.9507033642857147E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>7.8880671172413791E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>9.0515071000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -874,17 +1929,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
+        <v>7.5780918181818174E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
+        <v>7.6520191666666668E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
+        <v>7.5592751076923079E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -990,22 +2045,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
+        <v>7.5780918181818174E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
+        <v>7.6520191666666668E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
+        <v>7.5592751076923079E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
+        <v>7.5518428285714284E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -1106,27 +2161,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
+        <v>7.5780918181818174E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
+        <v>7.6520191666666668E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
+        <v>7.5592751076923079E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
+        <v>7.5518428285714284E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
+        <v>7.6125304800000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
@@ -1222,32 +2277,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
+        <v>7.5780918181818174E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
+        <v>7.6520191666666668E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
+        <v>7.5592751076923079E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
+        <v>7.5518428285714284E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
+        <v>7.6125304800000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7.8670462499999996E-2</v>
+        <v>7.5977951250000009E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -1338,37 +2393,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
+        <v>7.5780918181818174E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
+        <v>7.6520191666666668E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
+        <v>7.5592751076923079E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
+        <v>7.5518428285714284E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
+        <v>7.6125304800000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7.8670462499999996E-2</v>
+        <v>7.5977951250000009E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>8.3674624500000003E-2</v>
+        <v>7.6070438941176474E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -1454,42 +2509,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
+        <v>7.5780918181818174E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
+        <v>7.6520191666666668E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
+        <v>7.5592751076923079E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
+        <v>7.5518428285714284E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
+        <v>7.6125304800000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7.8670462499999996E-2</v>
+        <v>7.5977951250000009E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>8.3674624500000003E-2</v>
+        <v>7.6070438941176474E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7.9224723499999997E-2</v>
+        <v>7.6736196333333326E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -1570,47 +2625,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7.5320429500000008E-2</v>
+        <v>7.5780918181818174E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>8.1307541000000011E-2</v>
+        <v>7.6520191666666668E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7.8988239500000001E-2</v>
+        <v>7.5592751076923079E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>8.1888895000000003E-2</v>
+        <v>7.5518428285714284E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7.7940835999999999E-2</v>
+        <v>7.6125304800000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7.8670462499999996E-2</v>
+        <v>7.5977951250000009E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>8.3674624500000003E-2</v>
+        <v>7.6070438941176474E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7.9224723499999997E-2</v>
+        <v>7.6736196333333326E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7.9622697000000006E-2</v>
+        <v>7.7125836210526322E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">

--- a/NSGA-II_results_Ur/delay_average_results.xlsx
+++ b/NSGA-II_results_Ur/delay_average_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4DF448-973A-4E55-826D-D53A1101D8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7672D8-C611-4EBA-AEF7-16B380668CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{B8C1B2F0-09CF-41BC-B0B7-EF5208536115}"/>
+    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{B8C1B2F0-09CF-41BC-B0B7-EF5208536115}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -398,11 +396,11 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>9.373732671428571E-2</v>
+        <v>9.8044640285714288E-2</v>
       </c>
     </row>
   </sheetData>

--- a/NSGA-II_results_Ur/delay_average_results.xlsx
+++ b/NSGA-II_results_Ur/delay_average_results.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7672D8-C611-4EBA-AEF7-16B380668CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A25374-3A3A-4302-BBAC-31E2704709FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{B8C1B2F0-09CF-41BC-B0B7-EF5208536115}"/>
+    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{B8C1B2F0-09CF-41BC-B0B7-EF5208536115}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -392,15 +401,654 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C0125A-727E-40A8-A326-8F104E9C2DA2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>9.8044640285714288E-2</v>
+        <v>8.2904799761904763E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D1C7E-5A55-4851-9937-38F4DA2D7170}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>8.2364748380952382E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.3295650545454555E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8.810062917391305E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9.0755521583333332E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9.1967434240000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9.2403235846153842E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9.3509916222222225E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9.4340711035714286E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9.394220603448275E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9.4392929800000011E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5936384-5F0B-4F88-9F31-CD8FC67B8660}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>8.2364748380952382E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.3295650545454555E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB74D354-8C2F-438C-9ED9-8A2232B5F14C}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>8.2364748380952382E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.3295650545454555E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8.810062917391305E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EA39B-C8FB-4955-A38C-DA651CCEAAA9}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>8.2364748380952382E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.3295650545454555E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8.810062917391305E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9.0755521583333332E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002BA207-92B1-434D-8100-EAFC645928F3}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>8.2364748380952382E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.3295650545454555E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8.810062917391305E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9.0755521583333332E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9.1967434240000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214C0F4A-6F5C-4E5D-90D4-33956F4CDD18}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>8.2364748380952382E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.3295650545454555E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8.810062917391305E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9.0755521583333332E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9.1967434240000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9.2403235846153842E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE44B24-3D9A-42C9-8914-398DDB4D25B8}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>8.2364748380952382E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.3295650545454555E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8.810062917391305E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9.0755521583333332E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9.1967434240000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9.2403235846153842E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9.3509916222222225E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A14A1B-4080-458D-8FD8-C8DCB51024E9}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>8.2364748380952382E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.3295650545454555E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8.810062917391305E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9.0755521583333332E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9.1967434240000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9.2403235846153842E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9.3509916222222225E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9.4340711035714286E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7F0F12-1771-48B9-847B-F2C689B38483}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>8.2364748380952382E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.3295650545454555E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8.810062917391305E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9.0755521583333332E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9.1967434240000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9.2403235846153842E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9.3509916222222225E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9.4340711035714286E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9.394220603448275E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/NSGA-II_results_Ur/delay_average_results.xlsx
+++ b/NSGA-II_results_Ur/delay_average_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A25374-3A3A-4302-BBAC-31E2704709FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080A03E9-CE03-48EB-98E6-4387D3DCEFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{B8C1B2F0-09CF-41BC-B0B7-EF5208536115}"/>
+    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{B8C1B2F0-09CF-41BC-B0B7-EF5208536115}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,54 +405,54 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>8.2904799761904763E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>9.5127523000000005E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -471,54 +471,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.2364748380952382E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>8.3295650545454555E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>8.810062917391305E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9.0755521583333332E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9.1967434240000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>9.2403235846153842E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>9.3509916222222225E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>9.4340711035714286E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9.394220603448275E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9.4392929800000011E-2</v>
       </c>
@@ -537,54 +537,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.2364748380952382E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>8.3295650545454555E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -603,54 +603,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.2364748380952382E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>8.3295650545454555E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>8.810062917391305E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -669,54 +669,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.2364748380952382E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>8.3295650545454555E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>8.810062917391305E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9.0755521583333332E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -735,54 +735,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.2364748380952382E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>8.3295650545454555E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>8.810062917391305E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9.0755521583333332E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9.1967434240000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -801,54 +801,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.2364748380952382E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>8.3295650545454555E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>8.810062917391305E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9.0755521583333332E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9.1967434240000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>9.2403235846153842E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -867,54 +867,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.2364748380952382E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>8.3295650545454555E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>8.810062917391305E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9.0755521583333332E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9.1967434240000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>9.2403235846153842E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>9.3509916222222225E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -933,54 +933,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.2364748380952382E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>8.3295650545454555E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>8.810062917391305E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9.0755521583333332E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9.1967434240000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>9.2403235846153842E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>9.3509916222222225E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>9.4340711035714286E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -999,54 +999,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.2364748380952382E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>8.3295650545454555E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>8.810062917391305E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9.0755521583333332E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9.1967434240000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>9.2403235846153842E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>9.3509916222222225E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>9.4340711035714286E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9.394220603448275E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
